--- a/data/trans_bre/P28A_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28A_3_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>-23,71%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>66,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-21,34%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>-19,05%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 15,8</t>
+          <t>-9,11; 3,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 20,97</t>
+          <t>-2,32; 7,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 5,7</t>
+          <t>-4,78; 4,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 9,62</t>
+          <t>-5,02; 2,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-30,05; 55,06</t>
+          <t>-58,83; 62,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 240,74</t>
+          <t>-38,57; 425,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-61,68; 60,1</t>
+          <t>-66,8; 235,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-58,71; 341,76</t>
+          <t>-95,04; 303,21</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,75</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,27%</t>
+          <t>-47,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>114,32%</t>
+          <t>59,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>82,03%</t>
+          <t>-0,44%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 19,36</t>
+          <t>-4,84; 8,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,06; 11,09</t>
+          <t>-10,91; 0,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 18,69</t>
+          <t>-2,67; 6,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 14,64</t>
+          <t>-4,39; 2,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,55; 88,38</t>
+          <t>-49,88; 197,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,35; 90,98</t>
+          <t>-84,13; 24,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 439,81</t>
+          <t>-66,55; 534,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 644,8</t>
+          <t>-100,0; 399,95</t>
         </is>
       </c>
     </row>
@@ -820,37 +820,37 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,13</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,3</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,87</t>
+          <t>11,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,23</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>159,68%</t>
+          <t>201,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>213,34%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>74,05%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 44,34</t>
+          <t>-6,35; 20,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 39,85</t>
+          <t>2,6; 23,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 36,42</t>
+          <t>2,99; 25,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,77; 45,45</t>
+          <t>2,14; 20,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,59; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-88,22; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>57,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>25,3%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 14,53</t>
+          <t>-4,0; 4,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 11,59</t>
+          <t>-3,55; 3,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 9,8</t>
+          <t>-1,24; 5,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 11,28</t>
+          <t>-2,12; 2,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 60,42</t>
+          <t>-38,91; 70,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 91,28</t>
+          <t>-46,29; 103,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 118,99</t>
+          <t>-27,27; 300,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 267,28</t>
+          <t>-59,26; 243,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P28A_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28A_3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,195 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,64</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-23,71%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>66,46%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>3,29%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-19,05%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.303559121522781</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>14.75157802611088</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.4809233513386</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.2984306310455251</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.0852692547666406</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.030549514246084</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1703617888406312</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.04234048932772951</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,11; 3,79</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 7,3</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,78; 4,46</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,02; 2,43</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-58,83; 62,9</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-38,57; 425,65</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-66,8; 235,86</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-95,04; 303,21</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-22.57563669302084</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.161455905906504</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-17.83050698494947</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-9.863395272528667</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.4676259887796525</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1134251135728671</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.7286047142960511</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.8273278216704931</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.75393286777585</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>32.4312150017145</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.782421429643136</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.332079388507616</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.6003896313294869</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>5.302720773567214</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.870923970076968</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>5.926827971310202</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,19</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>25,85%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-47,57%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>59,8%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-0,44%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,84; 8,66</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,91; 0,68</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 6,22</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,39; 2,72</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-49,88; 197,71</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-84,13; 24,06</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-66,55; 534,81</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 399,95</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>8.47898913275966</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-11.82896105094422</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.507306804950046</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.6327694302851448</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.3563369616310876</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.3918826918849542</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.7164543821123482</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.09948726547561534</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,76</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,97</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>11,58</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,2</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>201,33%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-13.81755265299445</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-30.85614398957747</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-5.586721678674008</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-10.4904879624895</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4160720694873178</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.7544353230761011</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5064431683712313</v>
+      </c>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,35; 20,95</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,6; 23,88</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,99; 25,01</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,14; 20,42</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>28.10598896400072</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.00756978157464</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>17.67673095048274</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.58570867048695</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.104390627589552</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.4584268856036054</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>7.122116724565037</v>
+      </c>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,44 +823,34 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,99</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,49%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>10,78%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>57,78%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>25,3%</t>
+      <c r="C10" s="5" t="n">
+        <v>21.78964817995347</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>24.88045349599784</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>29.19705142842195</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>17.88225057032002</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.994207731105771</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -963,52 +858,152 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,0; 4,74</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,55; 3,83</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,24; 5,07</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,12; 2,91</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-38,91; 70,03</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-46,29; 103,96</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-27,27; 300,96</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-59,26; 243,21</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-20.97142218602061</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>7.313057561519162</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>7.691346018957064</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>4.874890569418171</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>62.89077838773396</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>57.27286983258517</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>55.34953253341614</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>46.13406611968254</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>4.773177106606652</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.616393958374606</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.071431000645828</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.33021905686627</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1647742459474106</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1755281738691064</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3859806028824148</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3641656639101852</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.894325907289788</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.136654334310304</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-5.032126251692315</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.790352789314801</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2230420884038433</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2990357202083011</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3580580917260278</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5030110824301551</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>19.70569814564046</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>15.72632373358968</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.89530599114384</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.229739455939384</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.9205315234175885</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.12327417422699</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.881178744757028</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.99213744034921</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1011,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
